--- a/Project Management/HostpitalF Project Plan.xlsx
+++ b/Project Management/HostpitalF Project Plan.xlsx
@@ -1,116 +1,305 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\FU\Capstone Project\hospital-finder\Project Management\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Project Phases" sheetId="4" r:id="rId1"/>
+    <sheet name="Phase 1" sheetId="5" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Phase 1'!$A$2:$H$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
-  <si>
-    <t>No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Assignee</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
     <t>Start Date</t>
   </si>
   <si>
-    <t>Due Date</t>
-  </si>
-  <si>
     <t>Study Facebook API</t>
   </si>
   <si>
     <t>Research searching algorithm</t>
   </si>
   <si>
-    <t>Design Web Interface</t>
-  </si>
-  <si>
-    <t>Review ERD</t>
-  </si>
-  <si>
-    <t>Review Use Case model</t>
-  </si>
-  <si>
-    <t>Collect data source</t>
-  </si>
-  <si>
-    <t>Research to find out alogorithm for optimize hostpital finding from user's input</t>
-  </si>
-  <si>
-    <t>Try to use facebook API to demo some main functions that faebook provided for developer</t>
-  </si>
-  <si>
-    <t>Design one repsonsive web interface that applicable both computer and mobile devices. There are 02 main GUI: User Page and Administrator Page</t>
-  </si>
-  <si>
-    <t>Keep on reviewing and editing ERD in order to find out optimize searching algorithms</t>
-  </si>
-  <si>
-    <t>Review and supplement use case</t>
-  </si>
-  <si>
-    <t>Collect and review data source from internet to find out trustworthy data sources</t>
-  </si>
-  <si>
-    <t>SonNX, VietLP</t>
-  </si>
-  <si>
-    <t>SonNX</t>
-  </si>
-  <si>
-    <t>AnhDTH, KhoaVNA</t>
-  </si>
-  <si>
-    <t>VietLP</t>
-  </si>
-  <si>
-    <t>22/05/2014</t>
-  </si>
-  <si>
     <t>Study Google API</t>
   </si>
   <si>
-    <t>Try to use Google API to demo 02 main functions: display one place on map with some brief description and display places that is near to pre-defined place</t>
-  </si>
-  <si>
-    <t>HospitalF Project Plan</t>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Analyze business and investigate technology</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>P1T1</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Sơn</t>
+  </si>
+  <si>
+    <t>P1T2</t>
+  </si>
+  <si>
+    <t>P1T3</t>
+  </si>
+  <si>
+    <t>P1T4</t>
+  </si>
+  <si>
+    <t>P1T5</t>
+  </si>
+  <si>
+    <t>P1T6</t>
+  </si>
+  <si>
+    <t>P1T7</t>
+  </si>
+  <si>
+    <t>P1T8</t>
+  </si>
+  <si>
+    <t>Dương Thị Hoàng Anh</t>
+  </si>
+  <si>
+    <t>P1T9</t>
+  </si>
+  <si>
+    <t>P1T10</t>
+  </si>
+  <si>
+    <t>P1T11</t>
+  </si>
+  <si>
+    <t>P1T12</t>
+  </si>
+  <si>
+    <t>P1T13</t>
+  </si>
+  <si>
+    <t>P1T14</t>
+  </si>
+  <si>
+    <t>PHASE 1 (05/19/2014 - 05/26/2014)</t>
+  </si>
+  <si>
+    <t>Create report 2</t>
+  </si>
+  <si>
+    <t>Project management plant (PMP)</t>
+  </si>
+  <si>
+    <t>Lê Phước Việt</t>
+  </si>
+  <si>
+    <t>Review report 2</t>
+  </si>
+  <si>
+    <t>Define methods for each role</t>
+  </si>
+  <si>
+    <t>Deme a project using Facebook API</t>
+  </si>
+  <si>
+    <t>Create website interface</t>
+  </si>
+  <si>
+    <t>Design layout</t>
+  </si>
+  <si>
+    <t>Create ERD</t>
+  </si>
+  <si>
+    <t>Create Entity Relation diagram</t>
+  </si>
+  <si>
+    <t>Vũ Nhật Anh Khoa</t>
+  </si>
+  <si>
+    <t>Research to find alogorithm for optimizing search method</t>
+  </si>
+  <si>
+    <t>Create and review general use case</t>
+  </si>
+  <si>
+    <t>Research Google API to demo 02 main functions: display one place on map with some brief description and display places that is near to pre-defined place</t>
+  </si>
+  <si>
+    <t>P1T15</t>
+  </si>
+  <si>
+    <t>P1T16</t>
+  </si>
+  <si>
+    <t>P1T17</t>
+  </si>
+  <si>
+    <t>P1T18</t>
+  </si>
+  <si>
+    <t>P1T19</t>
+  </si>
+  <si>
+    <t>P1T20</t>
+  </si>
+  <si>
+    <t>P1T21</t>
+  </si>
+  <si>
+    <t>P1T22</t>
+  </si>
+  <si>
+    <t>P1T23</t>
+  </si>
+  <si>
+    <t>P1T24</t>
+  </si>
+  <si>
+    <t>P1T25</t>
+  </si>
+  <si>
+    <t>P1T26</t>
+  </si>
+  <si>
+    <t>P1T27</t>
+  </si>
+  <si>
+    <t>P1T28</t>
+  </si>
+  <si>
+    <t>P1T29</t>
+  </si>
+  <si>
+    <t>P1T30</t>
+  </si>
+  <si>
+    <t>P1T31</t>
+  </si>
+  <si>
+    <t>P1T32</t>
+  </si>
+  <si>
+    <t>P1T33</t>
+  </si>
+  <si>
+    <t>P1T34</t>
+  </si>
+  <si>
+    <t>P1T35</t>
+  </si>
+  <si>
+    <t>P1T36</t>
+  </si>
+  <si>
+    <t>P1T37</t>
+  </si>
+  <si>
+    <t>P1T38</t>
+  </si>
+  <si>
+    <t>P1T39</t>
+  </si>
+  <si>
+    <t>P1T40</t>
+  </si>
+  <si>
+    <t>P1T41</t>
+  </si>
+  <si>
+    <t>P1T42</t>
+  </si>
+  <si>
+    <t>P1T43</t>
+  </si>
+  <si>
+    <t>P1T44</t>
+  </si>
+  <si>
+    <t>P1T45</t>
+  </si>
+  <si>
+    <t>P1T46</t>
+  </si>
+  <si>
+    <t>P1T47</t>
+  </si>
+  <si>
+    <t>P1T48</t>
+  </si>
+  <si>
+    <t>P1T49</t>
+  </si>
+  <si>
+    <t>P1T50</t>
+  </si>
+  <si>
+    <t>P1T51</t>
+  </si>
+  <si>
+    <t>P1T52</t>
+  </si>
+  <si>
+    <t>P1T53</t>
+  </si>
+  <si>
+    <t>P1T54</t>
+  </si>
+  <si>
+    <t>Create Physical Database</t>
+  </si>
+  <si>
+    <t>Create physical database in SQL Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,22 +314,61 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -149,52 +377,692 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color theme="4"/>
+        </left>
+        <right style="medium">
+          <color theme="4"/>
+        </right>
+        <top style="medium">
+          <color theme="4"/>
+        </top>
+        <bottom style="medium">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="4"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="4"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E12"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Phase" dataDxfId="4"/>
+    <tableColumn id="2" name="Start Date" dataDxfId="3"/>
+    <tableColumn id="3" name="End Date" dataDxfId="2"/>
+    <tableColumn id="5" name="Description" dataDxfId="1"/>
+    <tableColumn id="4" name="Status" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -240,7 +1108,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +1143,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,197 +1352,993 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="59.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B2" s="5">
+        <v>41778</v>
+      </c>
+      <c r="C2" s="5">
+        <v>41785</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12">
+      <formula1>"In progress, Pending, Canceled, Finished"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="62"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="69"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="25">
+        <v>41779</v>
+      </c>
+      <c r="F6" s="25">
+        <v>41779</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="35"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="25">
+        <v>41779</v>
+      </c>
+      <c r="F10" s="25">
+        <v>41781</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="35"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="35"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="36"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="36"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="40"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="40"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="40"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="40"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="40"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="36"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="40"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="36"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="40"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="40"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="36"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="40"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="36"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="40"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="36"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="40"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="36"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="36"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="40"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="36"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="36"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="36"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="40"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="40"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="36"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="40"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="40"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="36"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="36"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="36"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="36"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="37"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:H3"/>
+  <mergeCells count="21">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
+  </mergeCells>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G7 G9:G12 G16:G59 G14">
+      <formula1>"In progress, Pending, Canceled, Finished"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D59">
+      <formula1>"Lê Phước Việt, Nguyễn Xuân Sơn, Vũ Nhật Anh Khoa, Dương Thị Hoàng Anh"</formula1>
+    </dataValidation>
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:F7 E9:F12 E14:F14 E16:F59">
+      <formula1>41778</formula1>
+      <formula2>41785</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>